--- a/Data/EC/NIT-9006379160.xlsx
+++ b/Data/EC/NIT-9006379160.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{190F0370-41AD-4C12-8BF2-23BF62CD6946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D63ECCBF-F44D-4F5D-9073-C67E1853BDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF1F9E0E-85C3-40FB-97E4-00E5FBAFAAC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7FA4959E-0E0D-4E2C-924B-8567D82C3064}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,43 +71,43 @@
     <t>RICHARD LAMBRAÑO BOHORQUEZ</t>
   </si>
   <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54543EA8-F879-D45B-51E5-62797EE5D155}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A2AD6F-784A-461F-D89C-2D91A47FDDF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30963C16-01ED-4D98-BA9A-D7CE1AFF4F8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE65EDDD-ECFC-4067-85E4-169DDA042BC9}">
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31266</v>
+        <v>25013</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1326,7 +1326,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="24">
-        <v>25013</v>
+        <v>31266</v>
       </c>
       <c r="G28" s="24">
         <v>781242</v>

--- a/Data/EC/NIT-9006379160.xlsx
+++ b/Data/EC/NIT-9006379160.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D63ECCBF-F44D-4F5D-9073-C67E1853BDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E752C22-610F-40E3-88E0-541D78D52FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7FA4959E-0E0D-4E2C-924B-8567D82C3064}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BAC9AEDB-20ED-4DC3-AD9A-227A59B3F6F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,43 +71,43 @@
     <t>RICHARD LAMBRAÑO BOHORQUEZ</t>
   </si>
   <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -206,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A2AD6F-784A-461F-D89C-2D91A47FDDF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D87D13-3424-7342-D959-406942835C2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE65EDDD-ECFC-4067-85E4-169DDA042BC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E55C2E-694B-487C-A5E5-37E4D8CBA1CB}">
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,10 +1050,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25013</v>
+        <v>31266</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1076,7 +1076,7 @@
         <v>31266</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1099,7 +1099,7 @@
         <v>31266</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1122,7 +1122,7 @@
         <v>31266</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1145,7 +1145,7 @@
         <v>31266</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1168,7 +1168,7 @@
         <v>31266</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1191,7 +1191,7 @@
         <v>31266</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1214,7 +1214,7 @@
         <v>31266</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1237,7 +1237,7 @@
         <v>31266</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1260,7 +1260,7 @@
         <v>31266</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1283,7 +1283,7 @@
         <v>31266</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1306,7 +1306,7 @@
         <v>31266</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1326,10 +1326,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="24">
-        <v>31266</v>
+        <v>25013</v>
       </c>
       <c r="G28" s="24">
-        <v>781242</v>
+        <v>781642</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
